--- a/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1020,13 +1020,13 @@
         <v>0.375</v>
       </c>
       <c r="P2" s="1">
-        <v>0.16666666666666666</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R2" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S2" t="s">
         <v>33</v>
@@ -1097,13 +1097,13 @@
         <v>0.375</v>
       </c>
       <c r="P3" s="1">
-        <v>0.16666666666666666</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R3" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>43</v>
@@ -1174,13 +1174,13 @@
         <v>0.375</v>
       </c>
       <c r="P4" s="1">
-        <v>0.16666666666666666</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R4" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S4" t="s">
         <v>42</v>
@@ -1251,13 +1251,13 @@
         <v>0.375</v>
       </c>
       <c r="P5" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R5" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S5" t="s">
         <v>33</v>
@@ -1328,13 +1328,13 @@
         <v>0.375</v>
       </c>
       <c r="P6" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R6" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>43</v>
@@ -1405,13 +1405,13 @@
         <v>0.375</v>
       </c>
       <c r="P7" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R7" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S7" t="s">
         <v>42</v>
@@ -1482,13 +1482,13 @@
         <v>0.375</v>
       </c>
       <c r="P8" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R8" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S8" t="s">
         <v>33</v>
@@ -1559,13 +1559,13 @@
         <v>0.375</v>
       </c>
       <c r="P9" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R9" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>43</v>
@@ -1636,13 +1636,13 @@
         <v>0.375</v>
       </c>
       <c r="P10" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R10" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S10" t="s">
         <v>42</v>
@@ -1713,13 +1713,13 @@
         <v>0.375</v>
       </c>
       <c r="P11" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R11" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S11" t="s">
         <v>33</v>
@@ -1790,13 +1790,13 @@
         <v>0.375</v>
       </c>
       <c r="P12" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R12" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>43</v>
@@ -1867,13 +1867,13 @@
         <v>0.375</v>
       </c>
       <c r="P13" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S13" t="s">
         <v>42</v>
@@ -1944,13 +1944,13 @@
         <v>0.375</v>
       </c>
       <c r="P14" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R14" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S14" t="s">
         <v>33</v>
@@ -2021,13 +2021,13 @@
         <v>0.375</v>
       </c>
       <c r="P15" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R15" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>43</v>
@@ -2098,13 +2098,13 @@
         <v>0.375</v>
       </c>
       <c r="P16" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R16" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S16" t="s">
         <v>42</v>
@@ -2175,13 +2175,13 @@
         <v>0.375</v>
       </c>
       <c r="P17" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R17" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S17" t="s">
         <v>33</v>
@@ -2252,13 +2252,13 @@
         <v>0.375</v>
       </c>
       <c r="P18" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R18" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>43</v>
@@ -2329,13 +2329,13 @@
         <v>0.375</v>
       </c>
       <c r="P19" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R19" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S19" t="s">
         <v>42</v>
@@ -2406,13 +2406,13 @@
         <v>0.375</v>
       </c>
       <c r="P20" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R20" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S20" t="s">
         <v>33</v>
@@ -2483,13 +2483,13 @@
         <v>0.375</v>
       </c>
       <c r="P21" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R21" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>43</v>
@@ -2560,13 +2560,13 @@
         <v>0.375</v>
       </c>
       <c r="P22" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R22" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S22" t="s">
         <v>42</v>
@@ -2637,13 +2637,13 @@
         <v>0.375</v>
       </c>
       <c r="P23" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R23" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S23" t="s">
         <v>33</v>
@@ -2714,13 +2714,13 @@
         <v>0.375</v>
       </c>
       <c r="P24" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R24" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>43</v>
@@ -2791,13 +2791,13 @@
         <v>0.375</v>
       </c>
       <c r="P25" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q25" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R25" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S25" t="s">
         <v>42</v>
@@ -2868,13 +2868,13 @@
         <v>0.375</v>
       </c>
       <c r="P26" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R26" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S26" t="s">
         <v>33</v>
@@ -2945,13 +2945,13 @@
         <v>0.375</v>
       </c>
       <c r="P27" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q27" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R27" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>43</v>
@@ -3022,13 +3022,13 @@
         <v>0.375</v>
       </c>
       <c r="P28" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q28" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R28" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S28" t="s">
         <v>42</v>
@@ -3099,13 +3099,13 @@
         <v>0.375</v>
       </c>
       <c r="P29" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q29" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R29" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S29" t="s">
         <v>33</v>
@@ -3176,13 +3176,13 @@
         <v>0.375</v>
       </c>
       <c r="P30" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q30" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R30" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>43</v>
@@ -3253,13 +3253,13 @@
         <v>0.375</v>
       </c>
       <c r="P31" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q31" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R31" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S31" t="s">
         <v>42</v>
@@ -3330,13 +3330,13 @@
         <v>0.375</v>
       </c>
       <c r="P32" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q32" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R32" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S32" t="s">
         <v>33</v>
@@ -3407,13 +3407,13 @@
         <v>0.375</v>
       </c>
       <c r="P33" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q33" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R33" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>43</v>
@@ -3484,13 +3484,13 @@
         <v>0.375</v>
       </c>
       <c r="P34" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q34" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R34" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S34" t="s">
         <v>42</v>
@@ -3561,13 +3561,13 @@
         <v>0.375</v>
       </c>
       <c r="P35" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q35" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R35" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S35" t="s">
         <v>33</v>
@@ -3638,13 +3638,13 @@
         <v>0.375</v>
       </c>
       <c r="P36" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q36" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R36" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>43</v>
@@ -3715,13 +3715,13 @@
         <v>0.375</v>
       </c>
       <c r="P37" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q37" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R37" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S37" t="s">
         <v>42</v>
@@ -3792,13 +3792,13 @@
         <v>0.375</v>
       </c>
       <c r="P38" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q38" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R38" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S38" t="s">
         <v>33</v>
@@ -3869,13 +3869,13 @@
         <v>0.375</v>
       </c>
       <c r="P39" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q39" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R39" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S39" s="3" t="s">
         <v>43</v>
@@ -3946,13 +3946,13 @@
         <v>0.375</v>
       </c>
       <c r="P40" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q40" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R40" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S40" t="s">
         <v>42</v>
@@ -4023,13 +4023,13 @@
         <v>0.375</v>
       </c>
       <c r="P41" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q41" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R41" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S41" t="s">
         <v>33</v>
@@ -4100,13 +4100,13 @@
         <v>0.375</v>
       </c>
       <c r="P42" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q42" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R42" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>43</v>
@@ -4177,13 +4177,13 @@
         <v>0.375</v>
       </c>
       <c r="P43" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q43" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R43" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S43" t="s">
         <v>42</v>
@@ -4254,13 +4254,13 @@
         <v>0.375</v>
       </c>
       <c r="P44" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q44" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R44" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S44" t="s">
         <v>33</v>
@@ -4331,13 +4331,13 @@
         <v>0.375</v>
       </c>
       <c r="P45" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q45" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R45" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>43</v>
@@ -4408,13 +4408,13 @@
         <v>0.375</v>
       </c>
       <c r="P46" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="Q46" s="1">
-        <v>4.1666666666666699E-2</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R46" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S46" t="s">
         <v>42</v>

--- a/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1052,7 +1052,8 @@
     </row>
     <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="A3">
-        <v>10002</v>
+        <f>A2</f>
+        <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>38</v>
@@ -1129,7 +1130,8 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4">
-        <v>10003</v>
+        <f>A3</f>
+        <v>10001</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -1206,7 +1208,8 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5">
-        <v>10004</v>
+        <f>A2+1</f>
+        <v>10002</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -1283,7 +1286,8 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6">
-        <v>10005</v>
+        <f>A5</f>
+        <v>10002</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>46</v>
@@ -1360,7 +1364,8 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7">
-        <v>10006</v>
+        <f>A5</f>
+        <v>10002</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
@@ -1437,7 +1442,8 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8">
-        <v>10007</v>
+        <f>A5+1</f>
+        <v>10003</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -1514,7 +1520,8 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9">
-        <v>10008</v>
+        <f>A8</f>
+        <v>10003</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -1591,7 +1598,8 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10">
-        <v>10009</v>
+        <f>A8</f>
+        <v>10003</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
@@ -1668,7 +1676,8 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11">
-        <v>10010</v>
+        <f>A8+1</f>
+        <v>10004</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -1745,7 +1754,8 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12">
-        <v>10011</v>
+        <f>A11</f>
+        <v>10004</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
@@ -1822,7 +1832,8 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13">
-        <v>10012</v>
+        <f>A11</f>
+        <v>10004</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -1899,7 +1910,8 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14">
-        <v>10013</v>
+        <f>A11+1</f>
+        <v>10005</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -1976,7 +1988,8 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15">
-        <v>10014</v>
+        <f>A14</f>
+        <v>10005</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -2053,7 +2066,8 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16">
-        <v>10015</v>
+        <f>A14</f>
+        <v>10005</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -2130,7 +2144,8 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17">
-        <v>10016</v>
+        <f>A14+1</f>
+        <v>10006</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -2207,7 +2222,8 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18">
-        <v>10017</v>
+        <f>A17</f>
+        <v>10006</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
@@ -2284,7 +2300,8 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19">
-        <v>10018</v>
+        <f>A17</f>
+        <v>10006</v>
       </c>
       <c r="B19" t="s">
         <v>80</v>
@@ -2361,7 +2378,8 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20">
-        <v>10019</v>
+        <f>A17+1</f>
+        <v>10007</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
@@ -2438,7 +2456,8 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21">
-        <v>10020</v>
+        <f>A20</f>
+        <v>10007</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -2515,7 +2534,8 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22">
-        <v>10021</v>
+        <f>A20</f>
+        <v>10007</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
@@ -2592,7 +2612,8 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23">
-        <v>10022</v>
+        <f>A20+1</f>
+        <v>10008</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
@@ -2669,7 +2690,8 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24">
-        <v>10023</v>
+        <f>A23</f>
+        <v>10008</v>
       </c>
       <c r="B24" t="s">
         <v>89</v>
@@ -2746,7 +2768,8 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25">
-        <v>10024</v>
+        <f>A23</f>
+        <v>10008</v>
       </c>
       <c r="B25" t="s">
         <v>91</v>
@@ -2823,7 +2846,8 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26">
-        <v>10025</v>
+        <f>A23+1</f>
+        <v>10009</v>
       </c>
       <c r="B26" t="s">
         <v>97</v>
@@ -2900,7 +2924,8 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27">
-        <v>10026</v>
+        <f>A26</f>
+        <v>10009</v>
       </c>
       <c r="B27" t="s">
         <v>99</v>
@@ -2977,7 +3002,8 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28">
-        <v>10027</v>
+        <f>A26</f>
+        <v>10009</v>
       </c>
       <c r="B28" t="s">
         <v>98</v>
@@ -3054,7 +3080,8 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29">
-        <v>10028</v>
+        <f>A26+1</f>
+        <v>10010</v>
       </c>
       <c r="B29" t="s">
         <v>103</v>
@@ -3131,7 +3158,8 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30">
-        <v>10029</v>
+        <f>A29</f>
+        <v>10010</v>
       </c>
       <c r="B30" t="s">
         <v>104</v>
@@ -3208,7 +3236,8 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31">
-        <v>10030</v>
+        <f>A29</f>
+        <v>10010</v>
       </c>
       <c r="B31" t="s">
         <v>105</v>
@@ -3285,7 +3314,8 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32">
-        <v>10031</v>
+        <f>A29+1</f>
+        <v>10011</v>
       </c>
       <c r="B32" t="s">
         <v>111</v>
@@ -3362,7 +3392,8 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33">
-        <v>10032</v>
+        <f>A32</f>
+        <v>10011</v>
       </c>
       <c r="B33" t="s">
         <v>110</v>
@@ -3439,7 +3470,8 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34">
-        <v>10033</v>
+        <f>A32</f>
+        <v>10011</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
@@ -3516,7 +3548,8 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35">
-        <v>10034</v>
+        <f>A32+1</f>
+        <v>10012</v>
       </c>
       <c r="B35" t="s">
         <v>117</v>
@@ -3593,7 +3626,8 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36">
-        <v>10035</v>
+        <f>A35</f>
+        <v>10012</v>
       </c>
       <c r="B36" t="s">
         <v>116</v>
@@ -3670,7 +3704,8 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37">
-        <v>10036</v>
+        <f>A35</f>
+        <v>10012</v>
       </c>
       <c r="B37" t="s">
         <v>118</v>
@@ -3747,7 +3782,8 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38">
-        <v>10037</v>
+        <f>A35+1</f>
+        <v>10013</v>
       </c>
       <c r="B38" t="s">
         <v>123</v>
@@ -3824,7 +3860,8 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39">
-        <v>10038</v>
+        <f>A38</f>
+        <v>10013</v>
       </c>
       <c r="B39" t="s">
         <v>122</v>
@@ -3901,7 +3938,8 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40">
-        <v>10039</v>
+        <f>A38</f>
+        <v>10013</v>
       </c>
       <c r="B40" t="s">
         <v>124</v>
@@ -3978,7 +4016,8 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41">
-        <v>10040</v>
+        <f>A38+1</f>
+        <v>10014</v>
       </c>
       <c r="B41" t="s">
         <v>128</v>
@@ -4055,7 +4094,8 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42">
-        <v>10041</v>
+        <f>A41</f>
+        <v>10014</v>
       </c>
       <c r="B42" t="s">
         <v>129</v>
@@ -4132,7 +4172,8 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43">
-        <v>10042</v>
+        <f>A41</f>
+        <v>10014</v>
       </c>
       <c r="B43" t="s">
         <v>130</v>
@@ -4209,7 +4250,8 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44">
-        <v>10043</v>
+        <f>A41+1</f>
+        <v>10015</v>
       </c>
       <c r="B44" t="s">
         <v>134</v>
@@ -4286,7 +4328,8 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45">
-        <v>10044</v>
+        <f>A44</f>
+        <v>10015</v>
       </c>
       <c r="B45" t="s">
         <v>136</v>
@@ -4363,7 +4406,8 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46">
-        <v>10045</v>
+        <f>A44</f>
+        <v>10015</v>
       </c>
       <c r="B46" t="s">
         <v>135</v>
@@ -4441,5 +4485,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A5" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{32D84162-E7BC-47F7-AC88-44178A69CCB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -139,12 +140,6 @@
   </si>
   <si>
     <t>Centre A Ben Mansour</t>
-  </si>
-  <si>
-    <t> -6.453276</t>
-  </si>
-  <si>
-    <t> -6.453277</t>
   </si>
   <si>
     <t>GTM + 01h00) HEURE EUROPEENNE CENTRALE</t>
@@ -540,7 +535,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -863,11 +858,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -970,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -1005,10 +1000,10 @@
         <v>779517433</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1">
         <v>0.33333333333333331</v>
@@ -1071,10 +1066,10 @@
         <v>30</v>
       </c>
       <c r="G3">
-        <v>35.521169999999998</v>
+        <v>34.521169999999998</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <v>14022</v>
@@ -1083,10 +1078,10 @@
         <v>944945765</v>
       </c>
       <c r="K3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1">
         <v>0.33333333333333331</v>
@@ -1107,13 +1102,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
         <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V3" s="2" t="b">
         <v>1</v>
@@ -1149,10 +1144,10 @@
         <v>26</v>
       </c>
       <c r="G4">
-        <v>36.521169999999998</v>
+        <v>34.521169999999998</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>14022</v>
@@ -1161,10 +1156,10 @@
         <v>993556086</v>
       </c>
       <c r="K4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1">
         <v>0.33333333333333331</v>
@@ -1185,13 +1180,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s">
         <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V4" s="2" t="b">
         <v>1</v>
@@ -1212,16 +1207,16 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1239,10 +1234,10 @@
         <v>753476995</v>
       </c>
       <c r="K5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="1">
         <v>0.33333333333333298</v>
@@ -1290,16 +1285,16 @@
         <v>10002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>30</v>
@@ -1317,10 +1312,10 @@
         <v>910638389</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1">
         <v>0.33333333333333298</v>
@@ -1341,13 +1336,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
         <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V6" s="2" t="b">
         <v>1</v>
@@ -1368,16 +1363,16 @@
         <v>10002</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1395,10 +1390,10 @@
         <v>984996886</v>
       </c>
       <c r="K7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
         <v>0.33333333333333298</v>
@@ -1419,13 +1414,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s">
         <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V7" s="2" t="b">
         <v>1</v>
@@ -1446,16 +1441,16 @@
         <v>10003</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
         <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1473,10 +1468,10 @@
         <v>734239083</v>
       </c>
       <c r="K8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
         <v>0.33333333333333298</v>
@@ -1524,16 +1519,16 @@
         <v>10003</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>30</v>
@@ -1551,10 +1546,10 @@
         <v>910944467</v>
       </c>
       <c r="K9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1">
         <v>0.33333333333333298</v>
@@ -1575,13 +1570,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s">
         <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V9" s="2" t="b">
         <v>1</v>
@@ -1602,16 +1597,16 @@
         <v>10003</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
@@ -1629,10 +1624,10 @@
         <v>675470523</v>
       </c>
       <c r="K10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="1">
         <v>0.33333333333333298</v>
@@ -1653,13 +1648,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s">
         <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V10" s="2" t="b">
         <v>1</v>
@@ -1680,16 +1675,16 @@
         <v>10004</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>65</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -1707,10 +1702,10 @@
         <v>937997757</v>
       </c>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="1">
         <v>0.33333333333333298</v>
@@ -1758,16 +1753,16 @@
         <v>10004</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>30</v>
@@ -1785,10 +1780,10 @@
         <v>950807537</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="1">
         <v>0.33333333333333298</v>
@@ -1809,13 +1804,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s">
         <v>34</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V12" s="2" t="b">
         <v>1</v>
@@ -1836,16 +1831,16 @@
         <v>10004</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -1863,10 +1858,10 @@
         <v>852492117</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="1">
         <v>0.33333333333333298</v>
@@ -1887,13 +1882,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s">
         <v>34</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V13" s="2" t="b">
         <v>1</v>
@@ -1914,16 +1909,16 @@
         <v>10005</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
@@ -1941,10 +1936,10 @@
         <v>887311749</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="1">
         <v>0.33333333333333298</v>
@@ -1992,16 +1987,16 @@
         <v>10005</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>30</v>
@@ -2019,10 +2014,10 @@
         <v>929072416</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1">
         <v>0.33333333333333298</v>
@@ -2043,13 +2038,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s">
         <v>34</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V15" s="2" t="b">
         <v>1</v>
@@ -2070,16 +2065,16 @@
         <v>10005</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
@@ -2097,10 +2092,10 @@
         <v>658302699</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="1">
         <v>0.33333333333333298</v>
@@ -2121,13 +2116,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T16" t="s">
         <v>34</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V16" s="2" t="b">
         <v>1</v>
@@ -2148,16 +2143,16 @@
         <v>10006</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
@@ -2175,10 +2170,10 @@
         <v>915790305</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="1">
         <v>0.33333333333333298</v>
@@ -2226,16 +2221,16 @@
         <v>10006</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>30</v>
@@ -2253,10 +2248,10 @@
         <v>722656761</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="1">
         <v>0.33333333333333298</v>
@@ -2277,13 +2272,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s">
         <v>34</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V18" s="2" t="b">
         <v>1</v>
@@ -2304,16 +2299,16 @@
         <v>10006</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
@@ -2331,10 +2326,10 @@
         <v>888439793</v>
       </c>
       <c r="K19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" s="1">
         <v>0.33333333333333298</v>
@@ -2355,13 +2350,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T19" t="s">
         <v>34</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V19" s="2" t="b">
         <v>1</v>
@@ -2382,16 +2377,16 @@
         <v>10007</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
@@ -2409,10 +2404,10 @@
         <v>811552880</v>
       </c>
       <c r="K20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="1">
         <v>0.33333333333333298</v>
@@ -2460,16 +2455,16 @@
         <v>10007</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>30</v>
@@ -2487,10 +2482,10 @@
         <v>680758944</v>
       </c>
       <c r="K21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="1">
         <v>0.33333333333333298</v>
@@ -2511,13 +2506,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s">
         <v>34</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V21" s="2" t="b">
         <v>1</v>
@@ -2538,16 +2533,16 @@
         <v>10007</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
@@ -2565,10 +2560,10 @@
         <v>753640112</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="1">
         <v>0.33333333333333298</v>
@@ -2589,13 +2584,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T22" t="s">
         <v>34</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V22" s="2" t="b">
         <v>1</v>
@@ -2616,16 +2611,16 @@
         <v>10008</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -2643,10 +2638,10 @@
         <v>695325692</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="1">
         <v>0.33333333333333298</v>
@@ -2694,16 +2689,16 @@
         <v>10008</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>30</v>
@@ -2721,10 +2716,10 @@
         <v>851013196</v>
       </c>
       <c r="K24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1">
         <v>0.33333333333333298</v>
@@ -2745,13 +2740,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s">
         <v>34</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V24" s="2" t="b">
         <v>1</v>
@@ -2772,16 +2767,16 @@
         <v>10008</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -2799,10 +2794,10 @@
         <v>862899075</v>
       </c>
       <c r="K25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="1">
         <v>0.33333333333333298</v>
@@ -2823,13 +2818,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T25" t="s">
         <v>34</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V25" s="2" t="b">
         <v>1</v>
@@ -2850,16 +2845,16 @@
         <v>10009</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2877,10 +2872,10 @@
         <v>745360421</v>
       </c>
       <c r="K26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="1">
         <v>0.33333333333333298</v>
@@ -2904,7 +2899,7 @@
         <v>33</v>
       </c>
       <c r="T26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U26" t="s">
         <v>35</v>
@@ -2928,16 +2923,16 @@
         <v>10009</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>30</v>
@@ -2955,10 +2950,10 @@
         <v>889575995</v>
       </c>
       <c r="K27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="1">
         <v>0.33333333333333298</v>
@@ -2979,13 +2974,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V27" s="2" t="b">
         <v>1</v>
@@ -3006,16 +3001,16 @@
         <v>10009</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
         <v>26</v>
@@ -3033,10 +3028,10 @@
         <v>676186831</v>
       </c>
       <c r="K28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="1">
         <v>0.33333333333333298</v>
@@ -3057,13 +3052,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V28" s="2" t="b">
         <v>1</v>
@@ -3084,16 +3079,16 @@
         <v>10010</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
         <v>28</v>
@@ -3111,10 +3106,10 @@
         <v>766074745</v>
       </c>
       <c r="K29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" s="1">
         <v>0.33333333333333298</v>
@@ -3138,7 +3133,7 @@
         <v>33</v>
       </c>
       <c r="T29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U29" t="s">
         <v>35</v>
@@ -3162,16 +3157,16 @@
         <v>10010</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>30</v>
@@ -3189,10 +3184,10 @@
         <v>730621636</v>
       </c>
       <c r="K30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="1">
         <v>0.33333333333333298</v>
@@ -3213,13 +3208,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V30" s="2" t="b">
         <v>1</v>
@@ -3240,16 +3235,16 @@
         <v>10010</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
         <v>26</v>
@@ -3267,10 +3262,10 @@
         <v>773606891</v>
       </c>
       <c r="K31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" s="1">
         <v>0.33333333333333298</v>
@@ -3291,13 +3286,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V31" s="2" t="b">
         <v>1</v>
@@ -3318,16 +3313,16 @@
         <v>10011</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
@@ -3345,10 +3340,10 @@
         <v>787248921</v>
       </c>
       <c r="K32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="1">
         <v>0.33333333333333298</v>
@@ -3372,7 +3367,7 @@
         <v>33</v>
       </c>
       <c r="T32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U32" t="s">
         <v>35</v>
@@ -3396,16 +3391,16 @@
         <v>10011</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>30</v>
@@ -3423,10 +3418,10 @@
         <v>966040427</v>
       </c>
       <c r="K33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" s="1">
         <v>0.33333333333333298</v>
@@ -3447,13 +3442,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V33" s="2" t="b">
         <v>1</v>
@@ -3474,16 +3469,16 @@
         <v>10011</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
@@ -3501,10 +3496,10 @@
         <v>878691008</v>
       </c>
       <c r="K34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="1">
         <v>0.33333333333333298</v>
@@ -3525,13 +3520,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V34" s="2" t="b">
         <v>1</v>
@@ -3552,16 +3547,16 @@
         <v>10012</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
         <v>28</v>
@@ -3579,10 +3574,10 @@
         <v>838412388</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" s="1">
         <v>0.33333333333333298</v>
@@ -3606,7 +3601,7 @@
         <v>33</v>
       </c>
       <c r="T35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U35" t="s">
         <v>35</v>
@@ -3630,16 +3625,16 @@
         <v>10012</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>30</v>
@@ -3657,10 +3652,10 @@
         <v>759605605</v>
       </c>
       <c r="K36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" s="1">
         <v>0.33333333333333298</v>
@@ -3681,13 +3676,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V36" s="2" t="b">
         <v>1</v>
@@ -3708,16 +3703,16 @@
         <v>10012</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
@@ -3735,10 +3730,10 @@
         <v>719952201</v>
       </c>
       <c r="K37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" s="1">
         <v>0.33333333333333298</v>
@@ -3759,13 +3754,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V37" s="2" t="b">
         <v>1</v>
@@ -3786,16 +3781,16 @@
         <v>10013</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
@@ -3813,10 +3808,10 @@
         <v>751913644</v>
       </c>
       <c r="K38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" s="1">
         <v>0.33333333333333298</v>
@@ -3840,7 +3835,7 @@
         <v>33</v>
       </c>
       <c r="T38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U38" t="s">
         <v>35</v>
@@ -3864,16 +3859,16 @@
         <v>10013</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>30</v>
@@ -3891,10 +3886,10 @@
         <v>820594414</v>
       </c>
       <c r="K39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" s="1">
         <v>0.33333333333333298</v>
@@ -3915,13 +3910,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V39" s="2" t="b">
         <v>1</v>
@@ -3942,16 +3937,16 @@
         <v>10013</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
         <v>26</v>
@@ -3969,10 +3964,10 @@
         <v>956537434</v>
       </c>
       <c r="K40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="1">
         <v>0.33333333333333298</v>
@@ -3993,13 +3988,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V40" s="2" t="b">
         <v>1</v>
@@ -4020,16 +4015,16 @@
         <v>10014</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F41" t="s">
         <v>28</v>
@@ -4047,10 +4042,10 @@
         <v>965639376</v>
       </c>
       <c r="K41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" s="1">
         <v>0.33333333333333298</v>
@@ -4074,7 +4069,7 @@
         <v>33</v>
       </c>
       <c r="T41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U41" t="s">
         <v>35</v>
@@ -4098,16 +4093,16 @@
         <v>10014</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>30</v>
@@ -4125,10 +4120,10 @@
         <v>885430659</v>
       </c>
       <c r="K42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" s="1">
         <v>0.33333333333333298</v>
@@ -4149,13 +4144,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V42" s="2" t="b">
         <v>1</v>
@@ -4176,16 +4171,16 @@
         <v>10014</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
         <v>26</v>
@@ -4203,10 +4198,10 @@
         <v>781039430</v>
       </c>
       <c r="K43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" s="1">
         <v>0.33333333333333298</v>
@@ -4227,13 +4222,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V43" s="2" t="b">
         <v>1</v>
@@ -4254,16 +4249,16 @@
         <v>10015</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
         <v>28</v>
@@ -4281,10 +4276,10 @@
         <v>803062069</v>
       </c>
       <c r="K44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" s="1">
         <v>0.33333333333333298</v>
@@ -4308,7 +4303,7 @@
         <v>33</v>
       </c>
       <c r="T44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U44" t="s">
         <v>35</v>
@@ -4332,16 +4327,16 @@
         <v>10015</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>30</v>
@@ -4359,10 +4354,10 @@
         <v>802491003</v>
       </c>
       <c r="K45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45" s="1">
         <v>0.33333333333333298</v>
@@ -4383,13 +4378,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V45" s="2" t="b">
         <v>1</v>
@@ -4410,16 +4405,16 @@
         <v>10015</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
@@ -4437,10 +4432,10 @@
         <v>731435978</v>
       </c>
       <c r="K46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46" s="1">
         <v>0.33333333333333298</v>
@@ -4461,13 +4456,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V46" s="2" t="b">
         <v>1</v>

--- a/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{32D84162-E7BC-47F7-AC88-44178A69CCB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE14714A-CFBF-4CC3-BDD5-DD7256DECF76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,7 +862,7 @@
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1237,7 +1237,7 @@
         <v>139</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" s="1">
         <v>0.33333333333333298</v>
@@ -1315,7 +1315,7 @@
         <v>141</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="1">
         <v>0.33333333333333298</v>
@@ -1393,7 +1393,7 @@
         <v>139</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" s="1">
         <v>0.33333333333333298</v>

--- a/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE14714A-CFBF-4CC3-BDD5-DD7256DECF76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -139,12 +140,6 @@
   </si>
   <si>
     <t>Centre A Ben Mansour</t>
-  </si>
-  <si>
-    <t> -6.453276</t>
-  </si>
-  <si>
-    <t> -6.453277</t>
   </si>
   <si>
     <t>GTM + 01h00) HEURE EUROPEENNE CENTRALE</t>
@@ -540,7 +535,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -863,11 +858,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -970,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -1005,10 +1000,10 @@
         <v>779517433</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1">
         <v>0.33333333333333331</v>
@@ -1071,10 +1066,10 @@
         <v>30</v>
       </c>
       <c r="G3">
-        <v>35.521169999999998</v>
+        <v>34.521169999999998</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <v>14022</v>
@@ -1083,10 +1078,10 @@
         <v>944945765</v>
       </c>
       <c r="K3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1">
         <v>0.33333333333333331</v>
@@ -1107,13 +1102,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
         <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V3" s="2" t="b">
         <v>1</v>
@@ -1149,10 +1144,10 @@
         <v>26</v>
       </c>
       <c r="G4">
-        <v>36.521169999999998</v>
+        <v>34.521169999999998</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>14022</v>
@@ -1161,10 +1156,10 @@
         <v>993556086</v>
       </c>
       <c r="K4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1">
         <v>0.33333333333333331</v>
@@ -1185,13 +1180,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s">
         <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V4" s="2" t="b">
         <v>1</v>
@@ -1212,16 +1207,16 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1239,10 +1234,10 @@
         <v>753476995</v>
       </c>
       <c r="K5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" s="1">
         <v>0.33333333333333298</v>
@@ -1290,16 +1285,16 @@
         <v>10002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>30</v>
@@ -1317,10 +1312,10 @@
         <v>910638389</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" s="1">
         <v>0.33333333333333298</v>
@@ -1341,13 +1336,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
         <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V6" s="2" t="b">
         <v>1</v>
@@ -1368,16 +1363,16 @@
         <v>10002</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1395,10 +1390,10 @@
         <v>984996886</v>
       </c>
       <c r="K7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" s="1">
         <v>0.33333333333333298</v>
@@ -1419,13 +1414,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s">
         <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V7" s="2" t="b">
         <v>1</v>
@@ -1446,16 +1441,16 @@
         <v>10003</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
         <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1473,10 +1468,10 @@
         <v>734239083</v>
       </c>
       <c r="K8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
         <v>0.33333333333333298</v>
@@ -1524,16 +1519,16 @@
         <v>10003</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>30</v>
@@ -1551,10 +1546,10 @@
         <v>910944467</v>
       </c>
       <c r="K9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1">
         <v>0.33333333333333298</v>
@@ -1575,13 +1570,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s">
         <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V9" s="2" t="b">
         <v>1</v>
@@ -1602,16 +1597,16 @@
         <v>10003</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
@@ -1629,10 +1624,10 @@
         <v>675470523</v>
       </c>
       <c r="K10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="1">
         <v>0.33333333333333298</v>
@@ -1653,13 +1648,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s">
         <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V10" s="2" t="b">
         <v>1</v>
@@ -1680,16 +1675,16 @@
         <v>10004</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>65</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -1707,10 +1702,10 @@
         <v>937997757</v>
       </c>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="1">
         <v>0.33333333333333298</v>
@@ -1758,16 +1753,16 @@
         <v>10004</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>30</v>
@@ -1785,10 +1780,10 @@
         <v>950807537</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="1">
         <v>0.33333333333333298</v>
@@ -1809,13 +1804,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s">
         <v>34</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V12" s="2" t="b">
         <v>1</v>
@@ -1836,16 +1831,16 @@
         <v>10004</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -1863,10 +1858,10 @@
         <v>852492117</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="1">
         <v>0.33333333333333298</v>
@@ -1887,13 +1882,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s">
         <v>34</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V13" s="2" t="b">
         <v>1</v>
@@ -1914,16 +1909,16 @@
         <v>10005</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
@@ -1941,10 +1936,10 @@
         <v>887311749</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="1">
         <v>0.33333333333333298</v>
@@ -1992,16 +1987,16 @@
         <v>10005</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>30</v>
@@ -2019,10 +2014,10 @@
         <v>929072416</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1">
         <v>0.33333333333333298</v>
@@ -2043,13 +2038,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s">
         <v>34</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V15" s="2" t="b">
         <v>1</v>
@@ -2070,16 +2065,16 @@
         <v>10005</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
@@ -2097,10 +2092,10 @@
         <v>658302699</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="1">
         <v>0.33333333333333298</v>
@@ -2121,13 +2116,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T16" t="s">
         <v>34</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V16" s="2" t="b">
         <v>1</v>
@@ -2148,16 +2143,16 @@
         <v>10006</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
@@ -2175,10 +2170,10 @@
         <v>915790305</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="1">
         <v>0.33333333333333298</v>
@@ -2226,16 +2221,16 @@
         <v>10006</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>30</v>
@@ -2253,10 +2248,10 @@
         <v>722656761</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="1">
         <v>0.33333333333333298</v>
@@ -2277,13 +2272,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s">
         <v>34</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V18" s="2" t="b">
         <v>1</v>
@@ -2304,16 +2299,16 @@
         <v>10006</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
@@ -2331,10 +2326,10 @@
         <v>888439793</v>
       </c>
       <c r="K19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" s="1">
         <v>0.33333333333333298</v>
@@ -2355,13 +2350,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T19" t="s">
         <v>34</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V19" s="2" t="b">
         <v>1</v>
@@ -2382,16 +2377,16 @@
         <v>10007</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
@@ -2409,10 +2404,10 @@
         <v>811552880</v>
       </c>
       <c r="K20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="1">
         <v>0.33333333333333298</v>
@@ -2460,16 +2455,16 @@
         <v>10007</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>30</v>
@@ -2487,10 +2482,10 @@
         <v>680758944</v>
       </c>
       <c r="K21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="1">
         <v>0.33333333333333298</v>
@@ -2511,13 +2506,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s">
         <v>34</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V21" s="2" t="b">
         <v>1</v>
@@ -2538,16 +2533,16 @@
         <v>10007</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
@@ -2565,10 +2560,10 @@
         <v>753640112</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="1">
         <v>0.33333333333333298</v>
@@ -2589,13 +2584,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T22" t="s">
         <v>34</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V22" s="2" t="b">
         <v>1</v>
@@ -2616,16 +2611,16 @@
         <v>10008</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -2643,10 +2638,10 @@
         <v>695325692</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="1">
         <v>0.33333333333333298</v>
@@ -2694,16 +2689,16 @@
         <v>10008</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>30</v>
@@ -2721,10 +2716,10 @@
         <v>851013196</v>
       </c>
       <c r="K24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1">
         <v>0.33333333333333298</v>
@@ -2745,13 +2740,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s">
         <v>34</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V24" s="2" t="b">
         <v>1</v>
@@ -2772,16 +2767,16 @@
         <v>10008</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -2799,10 +2794,10 @@
         <v>862899075</v>
       </c>
       <c r="K25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="1">
         <v>0.33333333333333298</v>
@@ -2823,13 +2818,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T25" t="s">
         <v>34</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V25" s="2" t="b">
         <v>1</v>
@@ -2850,16 +2845,16 @@
         <v>10009</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2877,10 +2872,10 @@
         <v>745360421</v>
       </c>
       <c r="K26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="1">
         <v>0.33333333333333298</v>
@@ -2904,7 +2899,7 @@
         <v>33</v>
       </c>
       <c r="T26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U26" t="s">
         <v>35</v>
@@ -2928,16 +2923,16 @@
         <v>10009</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>30</v>
@@ -2955,10 +2950,10 @@
         <v>889575995</v>
       </c>
       <c r="K27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="1">
         <v>0.33333333333333298</v>
@@ -2979,13 +2974,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V27" s="2" t="b">
         <v>1</v>
@@ -3006,16 +3001,16 @@
         <v>10009</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
         <v>26</v>
@@ -3033,10 +3028,10 @@
         <v>676186831</v>
       </c>
       <c r="K28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="1">
         <v>0.33333333333333298</v>
@@ -3057,13 +3052,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V28" s="2" t="b">
         <v>1</v>
@@ -3084,16 +3079,16 @@
         <v>10010</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
         <v>28</v>
@@ -3111,10 +3106,10 @@
         <v>766074745</v>
       </c>
       <c r="K29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" s="1">
         <v>0.33333333333333298</v>
@@ -3138,7 +3133,7 @@
         <v>33</v>
       </c>
       <c r="T29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U29" t="s">
         <v>35</v>
@@ -3162,16 +3157,16 @@
         <v>10010</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>30</v>
@@ -3189,10 +3184,10 @@
         <v>730621636</v>
       </c>
       <c r="K30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="1">
         <v>0.33333333333333298</v>
@@ -3213,13 +3208,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V30" s="2" t="b">
         <v>1</v>
@@ -3240,16 +3235,16 @@
         <v>10010</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
         <v>26</v>
@@ -3267,10 +3262,10 @@
         <v>773606891</v>
       </c>
       <c r="K31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" s="1">
         <v>0.33333333333333298</v>
@@ -3291,13 +3286,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V31" s="2" t="b">
         <v>1</v>
@@ -3318,16 +3313,16 @@
         <v>10011</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
@@ -3345,10 +3340,10 @@
         <v>787248921</v>
       </c>
       <c r="K32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="1">
         <v>0.33333333333333298</v>
@@ -3372,7 +3367,7 @@
         <v>33</v>
       </c>
       <c r="T32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U32" t="s">
         <v>35</v>
@@ -3396,16 +3391,16 @@
         <v>10011</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>30</v>
@@ -3423,10 +3418,10 @@
         <v>966040427</v>
       </c>
       <c r="K33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" s="1">
         <v>0.33333333333333298</v>
@@ -3447,13 +3442,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V33" s="2" t="b">
         <v>1</v>
@@ -3474,16 +3469,16 @@
         <v>10011</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
@@ -3501,10 +3496,10 @@
         <v>878691008</v>
       </c>
       <c r="K34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="1">
         <v>0.33333333333333298</v>
@@ -3525,13 +3520,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V34" s="2" t="b">
         <v>1</v>
@@ -3552,16 +3547,16 @@
         <v>10012</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
         <v>28</v>
@@ -3579,10 +3574,10 @@
         <v>838412388</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" s="1">
         <v>0.33333333333333298</v>
@@ -3606,7 +3601,7 @@
         <v>33</v>
       </c>
       <c r="T35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U35" t="s">
         <v>35</v>
@@ -3630,16 +3625,16 @@
         <v>10012</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>30</v>
@@ -3657,10 +3652,10 @@
         <v>759605605</v>
       </c>
       <c r="K36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" s="1">
         <v>0.33333333333333298</v>
@@ -3681,13 +3676,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V36" s="2" t="b">
         <v>1</v>
@@ -3708,16 +3703,16 @@
         <v>10012</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
@@ -3735,10 +3730,10 @@
         <v>719952201</v>
       </c>
       <c r="K37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" s="1">
         <v>0.33333333333333298</v>
@@ -3759,13 +3754,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V37" s="2" t="b">
         <v>1</v>
@@ -3786,16 +3781,16 @@
         <v>10013</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
@@ -3813,10 +3808,10 @@
         <v>751913644</v>
       </c>
       <c r="K38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" s="1">
         <v>0.33333333333333298</v>
@@ -3840,7 +3835,7 @@
         <v>33</v>
       </c>
       <c r="T38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U38" t="s">
         <v>35</v>
@@ -3864,16 +3859,16 @@
         <v>10013</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>30</v>
@@ -3891,10 +3886,10 @@
         <v>820594414</v>
       </c>
       <c r="K39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" s="1">
         <v>0.33333333333333298</v>
@@ -3915,13 +3910,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V39" s="2" t="b">
         <v>1</v>
@@ -3942,16 +3937,16 @@
         <v>10013</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
         <v>26</v>
@@ -3969,10 +3964,10 @@
         <v>956537434</v>
       </c>
       <c r="K40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="1">
         <v>0.33333333333333298</v>
@@ -3993,13 +3988,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V40" s="2" t="b">
         <v>1</v>
@@ -4020,16 +4015,16 @@
         <v>10014</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F41" t="s">
         <v>28</v>
@@ -4047,10 +4042,10 @@
         <v>965639376</v>
       </c>
       <c r="K41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" s="1">
         <v>0.33333333333333298</v>
@@ -4074,7 +4069,7 @@
         <v>33</v>
       </c>
       <c r="T41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U41" t="s">
         <v>35</v>
@@ -4098,16 +4093,16 @@
         <v>10014</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>30</v>
@@ -4125,10 +4120,10 @@
         <v>885430659</v>
       </c>
       <c r="K42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" s="1">
         <v>0.33333333333333298</v>
@@ -4149,13 +4144,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V42" s="2" t="b">
         <v>1</v>
@@ -4176,16 +4171,16 @@
         <v>10014</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
         <v>26</v>
@@ -4203,10 +4198,10 @@
         <v>781039430</v>
       </c>
       <c r="K43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" s="1">
         <v>0.33333333333333298</v>
@@ -4227,13 +4222,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V43" s="2" t="b">
         <v>1</v>
@@ -4254,16 +4249,16 @@
         <v>10015</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
         <v>28</v>
@@ -4281,10 +4276,10 @@
         <v>803062069</v>
       </c>
       <c r="K44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" s="1">
         <v>0.33333333333333298</v>
@@ -4308,7 +4303,7 @@
         <v>33</v>
       </c>
       <c r="T44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U44" t="s">
         <v>35</v>
@@ -4332,16 +4327,16 @@
         <v>10015</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>30</v>
@@ -4359,10 +4354,10 @@
         <v>802491003</v>
       </c>
       <c r="K45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45" s="1">
         <v>0.33333333333333298</v>
@@ -4383,13 +4378,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V45" s="2" t="b">
         <v>1</v>
@@ -4410,16 +4405,16 @@
         <v>10015</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
@@ -4437,10 +4432,10 @@
         <v>731435978</v>
       </c>
       <c r="K46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46" s="1">
         <v>0.33333333333333298</v>
@@ -4461,13 +4456,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V46" s="2" t="b">
         <v>1</v>

--- a/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE14714A-CFBF-4CC3-BDD5-DD7256DECF76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2223FC26-C8DF-49AC-8F30-19838586DCA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,7 +862,7 @@
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A47" sqref="A47:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1237,7 +1237,7 @@
         <v>139</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" s="1">
         <v>0.33333333333333298</v>
@@ -1315,7 +1315,7 @@
         <v>141</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1">
         <v>0.33333333333333298</v>
@@ -1393,7 +1393,7 @@
         <v>139</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
         <v>0.33333333333333298</v>
@@ -1471,7 +1471,7 @@
         <v>142</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" s="1">
         <v>0.33333333333333298</v>
@@ -1549,7 +1549,7 @@
         <v>143</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9" s="1">
         <v>0.33333333333333298</v>
@@ -1627,7 +1627,7 @@
         <v>142</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10" s="1">
         <v>0.33333333333333298</v>
@@ -1939,7 +1939,7 @@
         <v>146</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
         <v>0.33333333333333298</v>
@@ -2017,7 +2017,7 @@
         <v>147</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
         <v>0.33333333333333298</v>
@@ -2095,7 +2095,7 @@
         <v>146</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <v>0.33333333333333298</v>

--- a/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-registration_center_h.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2223FC26-C8DF-49AC-8F30-19838586DCA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1820D9F-A486-4479-814A-7F30E78BEF28}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="169">
   <si>
     <t>id</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>بن منصور</t>
-  </si>
-  <si>
-    <t> -6.453275</t>
   </si>
   <si>
     <t>(GTM+01:00) CENTRAL EUROPEAN TIME</t>
@@ -862,7 +859,7 @@
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -965,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -990,8 +987,8 @@
       <c r="G2">
         <v>34.521169999999998</v>
       </c>
-      <c r="H2" t="s">
-        <v>32</v>
+      <c r="H2">
+        <v>-6.4532749999999997</v>
       </c>
       <c r="I2">
         <v>14022</v>
@@ -1000,7 +997,7 @@
         <v>779517433</v>
       </c>
       <c r="K2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -1024,25 +1021,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.5" customHeight="1">
@@ -1051,7 +1048,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -1068,8 +1065,8 @@
       <c r="G3">
         <v>34.521169999999998</v>
       </c>
-      <c r="H3" t="s">
-        <v>32</v>
+      <c r="H3">
+        <v>-6.4532749999999997</v>
       </c>
       <c r="I3">
         <v>14022</v>
@@ -1078,7 +1075,7 @@
         <v>944945765</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1102,25 +1099,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1129,7 +1126,7 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1146,8 +1143,8 @@
       <c r="G4">
         <v>34.521169999999998</v>
       </c>
-      <c r="H4" t="s">
-        <v>32</v>
+      <c r="H4">
+        <v>-6.4532749999999997</v>
       </c>
       <c r="I4">
         <v>14022</v>
@@ -1156,7 +1153,7 @@
         <v>993556086</v>
       </c>
       <c r="K4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -1180,25 +1177,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1207,16 +1204,16 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
         <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1234,7 +1231,7 @@
         <v>753476995</v>
       </c>
       <c r="K5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -1258,25 +1255,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" t="s">
         <v>33</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>34</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" t="s">
-        <v>36</v>
-      </c>
       <c r="X5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1285,16 +1282,16 @@
         <v>10002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>30</v>
@@ -1312,7 +1309,7 @@
         <v>910638389</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -1336,25 +1333,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1363,16 +1360,16 @@
         <v>10002</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1390,7 +1387,7 @@
         <v>984996886</v>
       </c>
       <c r="K7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1414,25 +1411,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1441,16 +1438,16 @@
         <v>10003</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1468,7 +1465,7 @@
         <v>734239083</v>
       </c>
       <c r="K8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L8">
         <v>4</v>
@@ -1492,25 +1489,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" t="s">
         <v>33</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>34</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W8" t="s">
-        <v>36</v>
-      </c>
       <c r="X8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1519,16 +1516,16 @@
         <v>10003</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>30</v>
@@ -1546,7 +1543,7 @@
         <v>910944467</v>
       </c>
       <c r="K9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -1570,25 +1567,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1597,16 +1594,16 @@
         <v>10003</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
@@ -1624,7 +1621,7 @@
         <v>675470523</v>
       </c>
       <c r="K10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -1648,25 +1645,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1675,16 +1672,16 @@
         <v>10004</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -1702,7 +1699,7 @@
         <v>937997757</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -1726,25 +1723,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" t="s">
         <v>33</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>34</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W11" t="s">
-        <v>36</v>
-      </c>
       <c r="X11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1753,16 +1750,16 @@
         <v>10004</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>30</v>
@@ -1780,7 +1777,7 @@
         <v>950807537</v>
       </c>
       <c r="K12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1804,25 +1801,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1831,16 +1828,16 @@
         <v>10004</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -1858,7 +1855,7 @@
         <v>852492117</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -1882,25 +1879,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1909,16 +1906,16 @@
         <v>10005</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
@@ -1936,7 +1933,7 @@
         <v>887311749</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1960,25 +1957,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S14" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" t="s">
         <v>33</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>34</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W14" t="s">
-        <v>36</v>
-      </c>
       <c r="X14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1987,16 +1984,16 @@
         <v>10005</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>30</v>
@@ -2014,7 +2011,7 @@
         <v>929072416</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2038,25 +2035,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V15" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2065,16 +2062,16 @@
         <v>10005</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
@@ -2092,7 +2089,7 @@
         <v>658302699</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2116,25 +2113,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2143,16 +2140,16 @@
         <v>10006</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
@@ -2170,7 +2167,7 @@
         <v>915790305</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -2194,25 +2191,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S17" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" t="s">
         <v>33</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>34</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W17" t="s">
-        <v>36</v>
-      </c>
       <c r="X17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2221,16 +2218,16 @@
         <v>10006</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>30</v>
@@ -2248,7 +2245,7 @@
         <v>722656761</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -2272,25 +2269,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V18" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2299,16 +2296,16 @@
         <v>10006</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
@@ -2326,7 +2323,7 @@
         <v>888439793</v>
       </c>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -2350,25 +2347,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V19" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2377,16 +2374,16 @@
         <v>10007</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
@@ -2404,7 +2401,7 @@
         <v>811552880</v>
       </c>
       <c r="K20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -2428,25 +2425,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" t="s">
         <v>33</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>34</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W20" t="s">
-        <v>36</v>
-      </c>
       <c r="X20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2455,16 +2452,16 @@
         <v>10007</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>30</v>
@@ -2482,7 +2479,7 @@
         <v>680758944</v>
       </c>
       <c r="K21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -2506,25 +2503,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V21" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2533,16 +2530,16 @@
         <v>10007</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
@@ -2560,7 +2557,7 @@
         <v>753640112</v>
       </c>
       <c r="K22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -2584,25 +2581,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V22" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2611,16 +2608,16 @@
         <v>10008</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
         <v>90</v>
-      </c>
-      <c r="E23" t="s">
-        <v>91</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -2638,7 +2635,7 @@
         <v>695325692</v>
       </c>
       <c r="K23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -2662,25 +2659,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" t="s">
         <v>33</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>34</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
         <v>35</v>
       </c>
-      <c r="V23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W23" t="s">
-        <v>36</v>
-      </c>
       <c r="X23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2689,16 +2686,16 @@
         <v>10008</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>30</v>
@@ -2716,7 +2713,7 @@
         <v>851013196</v>
       </c>
       <c r="K24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -2740,25 +2737,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2767,16 +2764,16 @@
         <v>10008</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -2794,7 +2791,7 @@
         <v>862899075</v>
       </c>
       <c r="K25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2818,25 +2815,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V25" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2845,16 +2842,16 @@
         <v>10009</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
       <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
         <v>98</v>
-      </c>
-      <c r="E26" t="s">
-        <v>99</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2872,7 +2869,7 @@
         <v>745360421</v>
       </c>
       <c r="K26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L26">
         <v>2</v>
@@ -2896,25 +2893,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U26" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W26" t="s">
-        <v>36</v>
-      </c>
       <c r="X26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2923,16 +2920,16 @@
         <v>10009</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>30</v>
@@ -2950,7 +2947,7 @@
         <v>889575995</v>
       </c>
       <c r="K27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -2974,25 +2971,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V27" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3001,16 +2998,16 @@
         <v>10009</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
         <v>26</v>
@@ -3028,7 +3025,7 @@
         <v>676186831</v>
       </c>
       <c r="K28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -3052,25 +3049,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V28" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3079,16 +3076,16 @@
         <v>10010</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
         <v>28</v>
@@ -3106,7 +3103,7 @@
         <v>766074745</v>
       </c>
       <c r="K29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -3130,25 +3127,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" t="s">
         <v>35</v>
       </c>
-      <c r="V29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W29" t="s">
-        <v>36</v>
-      </c>
       <c r="X29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -3157,16 +3154,16 @@
         <v>10010</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>30</v>
@@ -3184,7 +3181,7 @@
         <v>730621636</v>
       </c>
       <c r="K30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -3208,25 +3205,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V30" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3235,16 +3232,16 @@
         <v>10010</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
         <v>26</v>
@@ -3262,7 +3259,7 @@
         <v>773606891</v>
       </c>
       <c r="K31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -3286,25 +3283,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V31" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3313,16 +3310,16 @@
         <v>10011</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
@@ -3340,7 +3337,7 @@
         <v>787248921</v>
       </c>
       <c r="K32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L32">
         <v>2</v>
@@ -3364,25 +3361,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U32" t="s">
+        <v>34</v>
+      </c>
+      <c r="V32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W32" t="s">
         <v>35</v>
       </c>
-      <c r="V32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W32" t="s">
-        <v>36</v>
-      </c>
       <c r="X32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3391,16 +3388,16 @@
         <v>10011</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>30</v>
@@ -3418,7 +3415,7 @@
         <v>966040427</v>
       </c>
       <c r="K33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L33">
         <v>2</v>
@@ -3442,25 +3439,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V33" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3469,16 +3466,16 @@
         <v>10011</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
@@ -3496,7 +3493,7 @@
         <v>878691008</v>
       </c>
       <c r="K34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L34">
         <v>2</v>
@@ -3520,25 +3517,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V34" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3547,16 +3544,16 @@
         <v>10012</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
         <v>28</v>
@@ -3574,7 +3571,7 @@
         <v>838412388</v>
       </c>
       <c r="K35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L35">
         <v>2</v>
@@ -3598,25 +3595,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U35" t="s">
+        <v>34</v>
+      </c>
+      <c r="V35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W35" t="s">
         <v>35</v>
       </c>
-      <c r="V35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W35" t="s">
-        <v>36</v>
-      </c>
       <c r="X35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3625,16 +3622,16 @@
         <v>10012</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>30</v>
@@ -3652,7 +3649,7 @@
         <v>759605605</v>
       </c>
       <c r="K36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L36">
         <v>2</v>
@@ -3676,25 +3673,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V36" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3703,16 +3700,16 @@
         <v>10012</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
@@ -3730,7 +3727,7 @@
         <v>719952201</v>
       </c>
       <c r="K37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L37">
         <v>2</v>
@@ -3754,25 +3751,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V37" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3781,16 +3778,16 @@
         <v>10013</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
@@ -3808,7 +3805,7 @@
         <v>751913644</v>
       </c>
       <c r="K38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L38">
         <v>2</v>
@@ -3832,25 +3829,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U38" t="s">
+        <v>34</v>
+      </c>
+      <c r="V38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
         <v>35</v>
       </c>
-      <c r="V38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W38" t="s">
-        <v>36</v>
-      </c>
       <c r="X38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -3859,16 +3856,16 @@
         <v>10013</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>30</v>
@@ -3886,7 +3883,7 @@
         <v>820594414</v>
       </c>
       <c r="K39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -3910,25 +3907,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V39" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -3937,16 +3934,16 @@
         <v>10013</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
         <v>26</v>
@@ -3964,7 +3961,7 @@
         <v>956537434</v>
       </c>
       <c r="K40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -3988,25 +3985,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V40" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -4015,16 +4012,16 @@
         <v>10014</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
         <v>28</v>
@@ -4042,7 +4039,7 @@
         <v>965639376</v>
       </c>
       <c r="K41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -4066,25 +4063,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U41" t="s">
+        <v>34</v>
+      </c>
+      <c r="V41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
         <v>35</v>
       </c>
-      <c r="V41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W41" t="s">
-        <v>36</v>
-      </c>
       <c r="X41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -4093,16 +4090,16 @@
         <v>10014</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>30</v>
@@ -4120,7 +4117,7 @@
         <v>885430659</v>
       </c>
       <c r="K42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L42">
         <v>2</v>
@@ -4144,25 +4141,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V42" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -4171,16 +4168,16 @@
         <v>10014</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
         <v>26</v>
@@ -4198,7 +4195,7 @@
         <v>781039430</v>
       </c>
       <c r="K43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -4222,25 +4219,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V43" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -4249,16 +4246,16 @@
         <v>10015</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
         <v>28</v>
@@ -4276,7 +4273,7 @@
         <v>803062069</v>
       </c>
       <c r="K44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L44">
         <v>2</v>
@@ -4300,25 +4297,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U44" t="s">
+        <v>34</v>
+      </c>
+      <c r="V44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W44" t="s">
         <v>35</v>
       </c>
-      <c r="V44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W44" t="s">
-        <v>36</v>
-      </c>
       <c r="X44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -4327,16 +4324,16 @@
         <v>10015</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>30</v>
@@ -4354,7 +4351,7 @@
         <v>802491003</v>
       </c>
       <c r="K45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -4378,25 +4375,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V45" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -4405,16 +4402,16 @@
         <v>10015</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
@@ -4432,7 +4429,7 @@
         <v>731435978</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L46">
         <v>2</v>
@@ -4456,25 +4453,25 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="S46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V46" s="2" t="b">
         <v>1</v>
       </c>
       <c r="W46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
